--- a/Lab3 - Timeseries powerflow/24h_profiles.xlsx
+++ b/Lab3 - Timeseries powerflow/24h_profiles.xlsx
@@ -1,40 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinicius\PandaPowerCourse\2023\Lab3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\citcea\Documents\GitHub\MUSAE\MUSAE_smart_grids\Lab3 - Timeseries powerflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9BB5618-4105-4E31-A0F5-84B9E6BDE2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="24" yWindow="744" windowWidth="23016" windowHeight="13656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>load1_p</t>
-  </si>
-  <si>
-    <t>gen0_p</t>
-  </si>
-  <si>
-    <t>load0_p</t>
+    <t>Real Pu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -48,6 +54,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,20 +95,316 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7BE1BFBC-3748-4DBE-B92D-5B4CBB0E2BF8}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="30">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFD9E2F3"/>
+          <bgColor rgb="FFD9E2F3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE2EFD9"/>
+          <bgColor rgb="FFE2EFD9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="9"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="10" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Custom-Report-2023-02-06-Seguim-style" pivot="0" count="3" xr9:uid="{F437A9E6-C3F9-4003-BA1B-5680266D6600}">
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-07-Seguim-style" pivot="0" count="3" xr9:uid="{DEF9567A-E590-4D91-96A3-AD74E130E8FA}">
+      <tableStyleElement type="headerRow" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-08-Seguim-style" pivot="0" count="3" xr9:uid="{6F065297-ADF2-401F-8EA0-9A7A4D8C03A6}">
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-09-Seguim-style" pivot="0" count="3" xr9:uid="{5B5241B3-D020-42D8-B5D7-3A99F76B6DEC}">
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-10-Seguim-style" pivot="0" count="3" xr9:uid="{D1BE9D02-BE86-47B2-A474-FA74202070A0}">
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-13-Seguim-style" pivot="0" count="3" xr9:uid="{FCF3C5B1-8B1C-433B-BC99-8DD66F38732E}">
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-14-Seguim-style" pivot="0" count="3" xr9:uid="{D77F86F3-83EF-4950-9A2F-91AD7B402F33}">
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-15-Seguim-style" pivot="0" count="3" xr9:uid="{CA4C9297-B04F-4B00-A339-389613F6663D}">
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-16-Seguim-style" pivot="0" count="3" xr9:uid="{22C0E020-1CAF-4F09-9CE8-CFCB42165232}">
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+    </tableStyle>
+    <tableStyle name="Custom-Report-2023-02-17-Seguim-style" pivot="0" count="3" xr9:uid="{4B93282C-BB4A-46D0-90C4-8B3B5FFDF61C}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -184,6 +492,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -219,6 +544,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,361 +736,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>9.0833333000000002E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.50734000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3">
+        <v>0.74563844325974804</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>7.9166666999999996E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.48092000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="3">
+        <v>0.70458378990655124</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>7.9166666999999996E-2</v>
-      </c>
-      <c r="D4">
-        <v>0.60067000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>0.66621317147043246</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>7.9166666999999996E-2</v>
-      </c>
-      <c r="D5">
-        <v>0.59179999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>0.6477388852636633</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.27250000000000002</v>
-      </c>
-      <c r="D6">
-        <v>0.59260999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>0.64137969244407234</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0.41666666699999999</v>
-      </c>
-      <c r="D7">
-        <v>0.30005999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>0.64596286674628478</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0.1</v>
-      </c>
-      <c r="C8">
-        <v>0.45833333300000001</v>
-      </c>
-      <c r="D8">
-        <v>0.33838000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>0.69019711650927718</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-      <c r="C9">
-        <v>0.41666666699999999</v>
-      </c>
-      <c r="D9">
-        <v>0.33445999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>0.80797761662624201</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>0.25</v>
-      </c>
-      <c r="C10">
-        <v>0.35</v>
-      </c>
-      <c r="D10">
-        <v>0.5444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>0.92294172689329113</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>0.33</v>
-      </c>
-      <c r="C11">
-        <v>0.35833333299999998</v>
-      </c>
-      <c r="D11">
-        <v>0.58648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>0.9456421368857808</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>0.41</v>
-      </c>
-      <c r="C12">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="D12">
-        <v>0.41757</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>0.95523017446226965</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>0.65</v>
-      </c>
-      <c r="C13">
-        <v>0.44416666700000001</v>
-      </c>
-      <c r="D13">
-        <v>0.26658999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
+        <v>0.94133598453601897</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>0.82</v>
-      </c>
-      <c r="C14">
-        <v>0.57583333299999995</v>
-      </c>
-      <c r="D14">
-        <v>0.26995999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
+        <v>0.92430836852538134</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0.4325</v>
-      </c>
-      <c r="D15">
-        <v>0.25118000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3">
+        <v>0.91836163061277243</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>0.94</v>
-      </c>
-      <c r="C16">
-        <v>0.34833333300000002</v>
-      </c>
-      <c r="D16">
-        <v>0.18521000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" s="3">
+        <v>0.89877002253111871</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>0.84</v>
-      </c>
-      <c r="C17">
-        <v>0.33083333300000001</v>
-      </c>
-      <c r="D17">
-        <v>0.15540999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
+        <v>0.8882616564681548</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>0.71</v>
-      </c>
-      <c r="C18">
-        <v>0.34083333300000002</v>
-      </c>
-      <c r="D18">
-        <v>0.51249</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>0.88373080853473851</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C19">
-        <v>0.54833333299999998</v>
-      </c>
-      <c r="D19">
-        <v>0.88397000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
+        <v>0.88157619334901072</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>0.86387999999999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
+        <v>0.8935527757599635</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>0.2</v>
-      </c>
-      <c r="C21">
-        <v>0.83583333299999996</v>
-      </c>
-      <c r="D21">
-        <v>0.88338000000000005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
+        <v>0.95169352753598202</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>0.1</v>
-      </c>
-      <c r="C22">
-        <v>0.56333333299999999</v>
-      </c>
-      <c r="D22">
-        <v>0.95187999999999995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
+        <v>0.99626635968530297</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0.4</v>
-      </c>
-      <c r="D23">
-        <v>0.94732000000000005</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0.25</v>
-      </c>
-      <c r="D24">
-        <v>0.97484000000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
+        <v>0.92291094667635221</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0.17</v>
-      </c>
-      <c r="D25">
-        <v>0.94</v>
-      </c>
+      <c r="B25" s="3">
+        <v>0.83628310412331786</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
